--- a/media/salary_files/凃在福_P110030_薪資條.xlsx
+++ b/media/salary_files/凃在福_P110030_薪資條.xlsx
@@ -1048,50 +1048,92 @@
       <c r="F5" s="45" t="n"/>
     </row>
     <row r="6" ht="16.2" customHeight="1" s="40">
-      <c r="A6" s="3" t="inlineStr"/>
-      <c r="B6" s="46" t="inlineStr"/>
-      <c r="C6" s="23" t="inlineStr"/>
-      <c r="D6" s="47" t="inlineStr"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>基本薪資</t>
+        </is>
+      </c>
+      <c r="B6" s="46" t="n">
+        <v>27000</v>
+      </c>
+      <c r="C6" s="23" t="inlineStr">
+        <is>
+          <t>勞保</t>
+        </is>
+      </c>
+      <c r="D6" s="47" t="n">
+        <v>662</v>
+      </c>
       <c r="E6" s="48" t="inlineStr"/>
       <c r="F6" s="49" t="n"/>
     </row>
     <row r="7" ht="16.2" customHeight="1" s="40">
       <c r="A7" s="7" t="n"/>
       <c r="B7" s="50" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="50" t="n"/>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>健保</t>
+        </is>
+      </c>
+      <c r="D7" s="50" t="n">
+        <v>428</v>
+      </c>
       <c r="E7" s="51" t="n"/>
       <c r="F7" s="52" t="n"/>
     </row>
     <row r="8" ht="16.2" customHeight="1" s="40">
       <c r="A8" s="7" t="n"/>
       <c r="B8" s="50" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="50" t="n"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>勞退</t>
+        </is>
+      </c>
+      <c r="D8" s="50" t="n">
+        <v>1620</v>
+      </c>
       <c r="E8" s="51" t="n"/>
       <c r="F8" s="52" t="n"/>
     </row>
     <row r="9" ht="16.2" customHeight="1" s="40">
       <c r="A9" s="7" t="n"/>
       <c r="B9" s="50" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="50" t="n"/>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>勞退自提(2%)</t>
+        </is>
+      </c>
+      <c r="D9" s="50" t="n">
+        <v>540</v>
+      </c>
       <c r="E9" s="51" t="n"/>
       <c r="F9" s="52" t="n"/>
     </row>
     <row r="10" ht="16.2" customHeight="1" s="40">
       <c r="A10" s="7" t="n"/>
       <c r="B10" s="50" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="50" t="n"/>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>事假</t>
+        </is>
+      </c>
+      <c r="D10" s="50" t="n">
+        <v>3164</v>
+      </c>
       <c r="E10" s="51" t="n"/>
       <c r="F10" s="52" t="n"/>
     </row>
     <row r="11" ht="16.2" customHeight="1" s="40">
       <c r="A11" s="7" t="n"/>
       <c r="B11" s="50" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="50" t="n"/>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>病假</t>
+        </is>
+      </c>
+      <c r="D11" s="50" t="n">
+        <v>1356</v>
+      </c>
       <c r="E11" s="51" t="n"/>
       <c r="F11" s="52" t="n"/>
     </row>
@@ -1190,7 +1232,7 @@
         </is>
       </c>
       <c r="B23" s="57" t="n">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
@@ -1198,7 +1240,7 @@
         </is>
       </c>
       <c r="D23" s="57" t="n">
-        <v>0</v>
+        <v>7770</v>
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
@@ -1206,7 +1248,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>0</v>
+        <v>19230</v>
       </c>
     </row>
   </sheetData>

--- a/media/salary_files/凃在福_P110030_薪資條.xlsx
+++ b/media/salary_files/凃在福_P110030_薪資條.xlsx
@@ -953,15 +953,15 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16.33203125" customWidth="1" style="40" min="1" max="1"/>
     <col width="13" customWidth="1" style="40" min="2" max="2"/>
-    <col width="18.44140625" customWidth="1" style="40" min="3" max="3"/>
+    <col width="21" customWidth="1" style="40" min="3" max="3"/>
     <col width="15.44140625" bestFit="1" customWidth="1" style="40" min="4" max="4"/>
     <col width="10.21875" customWidth="1" style="40" min="5" max="5"/>
     <col width="14.5546875" customWidth="1" style="40" min="6" max="6"/>
@@ -997,11 +997,7 @@
           <t>部門名稱</t>
         </is>
       </c>
-      <c r="E3" s="36" t="inlineStr">
-        <is>
-          <t>工程1組</t>
-        </is>
-      </c>
+      <c r="E3" s="36" t="inlineStr"/>
     </row>
     <row r="4" ht="18" customHeight="1" s="40" thickBot="1">
       <c r="A4" s="41" t="inlineStr">
@@ -1062,7 +1058,7 @@
         </is>
       </c>
       <c r="D6" s="47" t="n">
-        <v>662</v>
+        <v>1100</v>
       </c>
       <c r="E6" s="48" t="inlineStr"/>
       <c r="F6" s="49" t="n"/>
@@ -1076,7 +1072,7 @@
         </is>
       </c>
       <c r="D7" s="50" t="n">
-        <v>428</v>
+        <v>622</v>
       </c>
       <c r="E7" s="51" t="n"/>
       <c r="F7" s="52" t="n"/>
@@ -1086,11 +1082,11 @@
       <c r="B8" s="50" t="n"/>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>勞退</t>
+          <t>勞退公提(6%免扣)</t>
         </is>
       </c>
       <c r="D8" s="50" t="n">
-        <v>1620</v>
+        <v>2400</v>
       </c>
       <c r="E8" s="51" t="n"/>
       <c r="F8" s="52" t="n"/>
@@ -1104,7 +1100,7 @@
         </is>
       </c>
       <c r="D9" s="50" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="E9" s="51" t="n"/>
       <c r="F9" s="52" t="n"/>
@@ -1240,7 +1236,7 @@
         </is>
       </c>
       <c r="D23" s="57" t="n">
-        <v>7770</v>
+        <v>7042</v>
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
@@ -1248,7 +1244,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>19230</v>
+        <v>19958</v>
       </c>
     </row>
   </sheetData>

--- a/media/salary_files/凃在福_P110030_薪資條.xlsx
+++ b/media/salary_files/凃在福_P110030_薪資條.xlsx
@@ -997,7 +997,11 @@
           <t>部門名稱</t>
         </is>
       </c>
-      <c r="E3" s="36" t="inlineStr"/>
+      <c r="E3" s="36" t="inlineStr">
+        <is>
+          <t>工程1組</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="18" customHeight="1" s="40" thickBot="1">
       <c r="A4" s="41" t="inlineStr">
